--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H2">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N2">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O2">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P2">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q2">
-        <v>20.04063814773347</v>
+        <v>22.25211056534667</v>
       </c>
       <c r="R2">
-        <v>20.04063814773347</v>
+        <v>200.26899508812</v>
       </c>
       <c r="S2">
-        <v>0.002228039990492225</v>
+        <v>0.002182907226994408</v>
       </c>
       <c r="T2">
-        <v>0.002228039990492225</v>
+        <v>0.002182907226994409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H3">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N3">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O3">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P3">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q3">
-        <v>56.69731856501585</v>
+        <v>61.77216123624611</v>
       </c>
       <c r="R3">
-        <v>56.69731856501585</v>
+        <v>555.949451126215</v>
       </c>
       <c r="S3">
-        <v>0.00630338675771257</v>
+        <v>0.006059780118100665</v>
       </c>
       <c r="T3">
-        <v>0.00630338675771257</v>
+        <v>0.006059780118100666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H4">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N4">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O4">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P4">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q4">
-        <v>151.593838684763</v>
+        <v>182.0061223998606</v>
       </c>
       <c r="R4">
-        <v>151.593838684763</v>
+        <v>1638.055101598746</v>
       </c>
       <c r="S4">
-        <v>0.01685361176685276</v>
+        <v>0.01785459760219806</v>
       </c>
       <c r="T4">
-        <v>0.01685361176685276</v>
+        <v>0.01785459760219806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H5">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I5">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J5">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N5">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O5">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P5">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q5">
-        <v>13.8468876588827</v>
+        <v>17.53533735959611</v>
       </c>
       <c r="R5">
-        <v>13.8468876588827</v>
+        <v>157.818036236365</v>
       </c>
       <c r="S5">
-        <v>0.001539442966856477</v>
+        <v>0.001720197036485068</v>
       </c>
       <c r="T5">
-        <v>0.001539442966856477</v>
+        <v>0.001720197036485068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H6">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N6">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O6">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P6">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q6">
-        <v>621.4235252038856</v>
+        <v>636.0389802333467</v>
       </c>
       <c r="R6">
-        <v>621.4235252038856</v>
+        <v>5724.35082210012</v>
       </c>
       <c r="S6">
-        <v>0.06908744397161316</v>
+        <v>0.06239471453839129</v>
       </c>
       <c r="T6">
-        <v>0.06908744397161316</v>
+        <v>0.0623947145383913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H7">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N7">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O7">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P7">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q7">
-        <v>1758.080122626464</v>
+        <v>1765.652850058079</v>
       </c>
       <c r="R7">
-        <v>1758.080122626464</v>
+        <v>15890.87565052272</v>
       </c>
       <c r="S7">
-        <v>0.1954564914962173</v>
+        <v>0.1732085752241996</v>
       </c>
       <c r="T7">
-        <v>0.1954564914962173</v>
+        <v>0.1732085752241997</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H8">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J8">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N8">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O8">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P8">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q8">
-        <v>4700.6476011508</v>
+        <v>5202.337465809261</v>
       </c>
       <c r="R8">
-        <v>4700.6476011508</v>
+        <v>46821.03719228334</v>
       </c>
       <c r="S8">
-        <v>0.522599667703686</v>
+        <v>0.5103435028344643</v>
       </c>
       <c r="T8">
-        <v>0.522599667703686</v>
+        <v>0.5103435028344644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H9">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J9">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N9">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O9">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P9">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q9">
-        <v>429.3666538287472</v>
+        <v>501.2179882664295</v>
       </c>
       <c r="R9">
-        <v>429.3666538287472</v>
+        <v>4510.961894397866</v>
       </c>
       <c r="S9">
-        <v>0.04773531003664539</v>
+        <v>0.04916892560251137</v>
       </c>
       <c r="T9">
-        <v>0.04773531003664539</v>
+        <v>0.04916892560251138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H10">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N10">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O10">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P10">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q10">
-        <v>8.011126560330716</v>
+        <v>8.397769697053333</v>
       </c>
       <c r="R10">
-        <v>8.011126560330716</v>
+        <v>75.57992727348001</v>
       </c>
       <c r="S10">
-        <v>0.0008906458074704537</v>
+        <v>0.0008238118406116581</v>
       </c>
       <c r="T10">
-        <v>0.0008906458074704537</v>
+        <v>0.0008238118406116583</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H11">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I11">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J11">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N11">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O11">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P11">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q11">
-        <v>22.66441773497616</v>
+        <v>23.31232276722055</v>
       </c>
       <c r="R11">
-        <v>22.66441773497616</v>
+        <v>209.810904904985</v>
       </c>
       <c r="S11">
-        <v>0.002519741572224293</v>
+        <v>0.002286912861463181</v>
       </c>
       <c r="T11">
-        <v>0.002519741572224293</v>
+        <v>0.002286912861463182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H12">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I12">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J12">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N12">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O12">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P12">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q12">
-        <v>60.59874034536887</v>
+        <v>68.68766425005933</v>
       </c>
       <c r="R12">
-        <v>60.59874034536887</v>
+        <v>618.188978250534</v>
       </c>
       <c r="S12">
-        <v>0.006737131615651986</v>
+        <v>0.006738183250370886</v>
       </c>
       <c r="T12">
-        <v>0.006737131615651986</v>
+        <v>0.006738183250370888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H13">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I13">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J13">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N13">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O13">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P13">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q13">
-        <v>5.535211438091681</v>
+        <v>6.617696971870556</v>
       </c>
       <c r="R13">
-        <v>5.535211438091681</v>
+        <v>59.55927274683501</v>
       </c>
       <c r="S13">
-        <v>0.000615383220283982</v>
+        <v>0.0006491886917213058</v>
       </c>
       <c r="T13">
-        <v>0.000615383220283982</v>
+        <v>0.0006491886917213059</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H14">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I14">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J14">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N14">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O14">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P14">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q14">
-        <v>94.85243878341488</v>
+        <v>133.2437350685467</v>
       </c>
       <c r="R14">
-        <v>94.85243878341488</v>
+        <v>1199.19361561692</v>
       </c>
       <c r="S14">
-        <v>0.01054532421808461</v>
+        <v>0.01307106179338398</v>
       </c>
       <c r="T14">
-        <v>0.01054532421808461</v>
+        <v>0.01307106179338398</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H15">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I15">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J15">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N15">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O15">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P15">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q15">
-        <v>268.3486872387922</v>
+        <v>369.8864187378127</v>
       </c>
       <c r="R15">
-        <v>268.3486872387922</v>
+        <v>3328.977768640315</v>
       </c>
       <c r="S15">
-        <v>0.02983396048352577</v>
+        <v>0.0362854451158113</v>
       </c>
       <c r="T15">
-        <v>0.02983396048352577</v>
+        <v>0.03628544511581131</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H16">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I16">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J16">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N16">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O16">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P16">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q16">
-        <v>717.4943830526461</v>
+        <v>1089.83709579742</v>
       </c>
       <c r="R16">
-        <v>717.4943830526461</v>
+        <v>9808.533862176786</v>
       </c>
       <c r="S16">
-        <v>0.0797682272695313</v>
+        <v>0.106911803519781</v>
       </c>
       <c r="T16">
-        <v>0.0797682272695313</v>
+        <v>0.1069118035197811</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H17">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I17">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J17">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N17">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O17">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P17">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q17">
-        <v>65.53738729889379</v>
+        <v>105.0001004901628</v>
       </c>
       <c r="R17">
-        <v>65.53738729889379</v>
+        <v>945.0009044114651</v>
       </c>
       <c r="S17">
-        <v>0.00728619112315178</v>
+        <v>0.01030039274351164</v>
       </c>
       <c r="T17">
-        <v>0.00728619112315178</v>
+        <v>0.01030039274351164</v>
       </c>
     </row>
   </sheetData>
